--- a/biology/Zoologie/L'Amateur_de_papillons/L'Amateur_de_papillons.xlsx
+++ b/biology/Zoologie/L'Amateur_de_papillons/L'Amateur_de_papillons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Amateur_de_papillons</t>
+          <t>L'Amateur_de_papillons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Amateur de papillons est une revue entomologique traitant des lépidoptères créée par Léon Lhomme en 1922.
 À partir de 1938, la revue adopte pour titre Revue française de lépidoptérologie.
-À cette époque le comité de lecture est composé de Charles Boursin, Philippe Henriot, Ferdinand Le Cerf, Simon Le Marchand, Henri Stempffer et du directeur de la revue, Léon Lhomme [1].
+À cette époque le comité de lecture est composé de Charles Boursin, Philippe Henriot, Ferdinand Le Cerf, Simon Le Marchand, Henri Stempffer et du directeur de la revue, Léon Lhomme .
 À la suite du décès de Léon Lhomme, en 1949, la rédaction de la revue est poursuivie par Louis Le Charles jusqu'en 1957.
 </t>
         </is>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Amateur_de_papillons</t>
+          <t>L'Amateur_de_papillons</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Amateur_de_papillons</t>
+          <t>L'Amateur_de_papillons</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,6 +556,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -549,7 +565,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Amateur_de_papillons</t>
+          <t>L'Amateur_de_papillons</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,6 +584,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -575,7 +593,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Amateur_de_papillons</t>
+          <t>L'Amateur_de_papillons</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,6 +612,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -601,7 +621,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%27Amateur_de_papillons</t>
+          <t>L'Amateur_de_papillons</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -620,6 +640,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -627,7 +649,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>L%27Amateur_de_papillons</t>
+          <t>L'Amateur_de_papillons</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -646,6 +668,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
